--- a/medicine/Pharmacie/1818_en_santé_et_médecine/1818_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1818_en_santé_et_médecine/1818_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1818_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1818_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1817 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1818_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1818_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>26 mai : Henri Savigny, ex-chirurgien de la Marine, soutient sa thèse de doctorat en médecine sur le naufrage de La Méduse dont il est lui-même un rescapé[1], ouvrage qui sert à la documentation du « Défilé de la Hache », quatorzième chapitre de Salammbô, consacré par Flaubert à l'agonie des mercenaires [2].
-29 juin : Laennec publie son invention du stéthoscope[3].
-27 juillet : circulaire du sous-secrétaire d'État de l'Intérieur sur les frais de transport et de traitement des aliénés[4].
-27 septembre : le docteur James Blundell à Londres pratique la première transfusion de sang humain ; le patient ne survit pas[5].
-Joseph Bienaimé Caventou et Pierre Joseph Pelletier isolent la strychnine de la fève de Saint-Ignace et de la noix vomique[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>26 mai : Henri Savigny, ex-chirurgien de la Marine, soutient sa thèse de doctorat en médecine sur le naufrage de La Méduse dont il est lui-même un rescapé, ouvrage qui sert à la documentation du « Défilé de la Hache », quatorzième chapitre de Salammbô, consacré par Flaubert à l'agonie des mercenaires .
+29 juin : Laennec publie son invention du stéthoscope.
+27 juillet : circulaire du sous-secrétaire d'État de l'Intérieur sur les frais de transport et de traitement des aliénés.
+27 septembre : le docteur James Blundell à Londres pratique la première transfusion de sang humain ; le patient ne survit pas.
+Joseph Bienaimé Caventou et Pierre Joseph Pelletier isolent la strychnine de la fève de Saint-Ignace et de la noix vomique.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1818_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1818_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Clarke Abel (1780-1826), Narrative of a Journey in the Interior of China, 1816-1817[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Clarke Abel (1780-1826), Narrative of a Journey in the Interior of China, 1816-1817.
 Karl Ferdinand von Gräfe : Rhinoplastik.
-Pierre Rayer (1793-1867) publie son Sommaire d'une histoire abrégée de l'anatomie pathologique[8],[9].</t>
+Pierre Rayer (1793-1867) publie son Sommaire d'une histoire abrégée de l'anatomie pathologique,.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1818_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1818_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>27 mai : Franz Donders (mort en 1889), physiologiste, anatomiste et ophtalmologiste néerlandais.</t>
         </is>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1818_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1818_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">24 octobre : Luigi Brugnatelli (né en 1761), médecin et chimiste italien.
 </t>
